--- a/1212020cw.xlsx
+++ b/1212020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="641">
   <si>
     <t>Surname</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Chapeyama</t>
   </si>
   <si>
-    <t>H190463z</t>
+    <t>H190463Z</t>
   </si>
   <si>
     <t>Charakupa</t>
@@ -136,7 +136,7 @@
     <t>Chari</t>
   </si>
   <si>
-    <t>H190663f</t>
+    <t>H190663F</t>
   </si>
   <si>
     <t>Charuma</t>
@@ -166,7 +166,7 @@
     <t>Chawafambira</t>
   </si>
   <si>
-    <t>H180194w</t>
+    <t>H180194W</t>
   </si>
   <si>
     <t>Chawasarira</t>
@@ -751,7 +751,7 @@
     <t xml:space="preserve">Magondola </t>
   </si>
   <si>
-    <t>H170109y</t>
+    <t>H170109Y</t>
   </si>
   <si>
     <t>Magwada</t>
@@ -868,7 +868,7 @@
     <t>Mangava</t>
   </si>
   <si>
-    <t>H190623e</t>
+    <t>H190623E</t>
   </si>
   <si>
     <t>Mango</t>
@@ -898,7 +898,7 @@
     <t>Mapurisa</t>
   </si>
   <si>
-    <t>H190208w</t>
+    <t>H190208W</t>
   </si>
   <si>
     <t>MARADZA</t>
@@ -967,7 +967,7 @@
     <t xml:space="preserve">Masamba </t>
   </si>
   <si>
-    <t xml:space="preserve">H190320j </t>
+    <t>H190320J</t>
   </si>
   <si>
     <t>Masawi</t>
@@ -1129,7 +1129,7 @@
     <t>Muchiriri</t>
   </si>
   <si>
-    <t>H190264r</t>
+    <t>H190264R</t>
   </si>
   <si>
     <t>Mude</t>
@@ -1165,7 +1165,7 @@
     <t>Muhuti</t>
   </si>
   <si>
-    <t>H180890p</t>
+    <t>H180890P</t>
   </si>
   <si>
     <t>Mujakata</t>
@@ -1249,7 +1249,7 @@
     <t>Mureverwi</t>
   </si>
   <si>
-    <t>H190560c</t>
+    <t>H190560C</t>
   </si>
   <si>
     <t>Murwisi</t>
@@ -1339,7 +1339,7 @@
     <t>mutore</t>
   </si>
   <si>
-    <t>H190643q</t>
+    <t>H190643Q</t>
   </si>
   <si>
     <t xml:space="preserve">Muzambi </t>
@@ -1444,7 +1444,7 @@
     <t>Ngwengwe</t>
   </si>
   <si>
-    <t>H180048j@hit.ac.zw</t>
+    <t>H180048J</t>
   </si>
   <si>
     <t>Ngwira</t>
@@ -1708,7 +1708,7 @@
     <t xml:space="preserve">Thomas </t>
   </si>
   <si>
-    <t>H190814z</t>
+    <t>H190814Z</t>
   </si>
   <si>
     <t>Togarepi</t>
@@ -1732,7 +1732,7 @@
     <t>Vhuta</t>
   </si>
   <si>
-    <t xml:space="preserve">H190233t </t>
+    <t>H190233T</t>
   </si>
   <si>
     <t>Waeni</t>
@@ -1783,7 +1783,157 @@
     <t>H190744G</t>
   </si>
   <si>
+    <t>Mkumbuzi</t>
+  </si>
+  <si>
     <t>H180063Z</t>
+  </si>
+  <si>
+    <t>Mlambo</t>
+  </si>
+  <si>
+    <t>H140105F</t>
+  </si>
+  <si>
+    <t>Mafawune</t>
+  </si>
+  <si>
+    <t>H170346H</t>
+  </si>
+  <si>
+    <t>Marange</t>
+  </si>
+  <si>
+    <t>H180010C</t>
+  </si>
+  <si>
+    <t>Maredza</t>
+  </si>
+  <si>
+    <t>H180221H</t>
+  </si>
+  <si>
+    <t>Sambani</t>
+  </si>
+  <si>
+    <t>H180338Y</t>
+  </si>
+  <si>
+    <t>H180426C</t>
+  </si>
+  <si>
+    <t>Chiwera</t>
+  </si>
+  <si>
+    <t>H180486N</t>
+  </si>
+  <si>
+    <t>KHUMALO</t>
+  </si>
+  <si>
+    <t>H180557B</t>
+  </si>
+  <si>
+    <t>Gonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H180604P </t>
+  </si>
+  <si>
+    <t>NDEBELE</t>
+  </si>
+  <si>
+    <t>H180643B</t>
+  </si>
+  <si>
+    <t>NJIKIZANA</t>
+  </si>
+  <si>
+    <t>H180649Y</t>
+  </si>
+  <si>
+    <t>Nyashadzashe</t>
+  </si>
+  <si>
+    <t>H180704M</t>
+  </si>
+  <si>
+    <t>Chihuri</t>
+  </si>
+  <si>
+    <t>H190184W</t>
+  </si>
+  <si>
+    <t>Kaboti</t>
+  </si>
+  <si>
+    <t>H190340F</t>
+  </si>
+  <si>
+    <t>Ngwerume</t>
+  </si>
+  <si>
+    <t>H190383X</t>
+  </si>
+  <si>
+    <t>Muteera</t>
+  </si>
+  <si>
+    <t>H19044Z</t>
+  </si>
+  <si>
+    <t>Chidzanga</t>
+  </si>
+  <si>
+    <t>H190594V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukande </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H190596E </t>
+  </si>
+  <si>
+    <t>Zhanda</t>
+  </si>
+  <si>
+    <t>H190661F</t>
+  </si>
+  <si>
+    <t>SABATA</t>
+  </si>
+  <si>
+    <t>H190716V</t>
+  </si>
+  <si>
+    <t>Machirori</t>
+  </si>
+  <si>
+    <t>H190717B</t>
+  </si>
+  <si>
+    <t>KAKOMWE</t>
+  </si>
+  <si>
+    <t>H190745A</t>
+  </si>
+  <si>
+    <t>Charumbwidza</t>
+  </si>
+  <si>
+    <t>H190837V</t>
+  </si>
+  <si>
+    <t>Mutize</t>
+  </si>
+  <si>
+    <t>H199697H</t>
+  </si>
+  <si>
+    <t>Zvavanjanja</t>
+  </si>
+  <si>
+    <t>H190843B</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +2004,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1871,9 +2021,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2959,7 +3106,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E323"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8315,9 +8462,11 @@
       </c>
     </row>
     <row r="298" ht="13.65" customHeight="1">
-      <c r="A298" s="6"/>
+      <c r="A298" t="s" s="3">
+        <v>590</v>
+      </c>
       <c r="B298" t="s" s="3">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C298" t="s" s="3">
         <v>16</v>
@@ -8328,6 +8477,406 @@
       <c r="E298" s="5">
         <f>D298/50</f>
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="299" ht="13.65" customHeight="1">
+      <c r="A299" t="s" s="3">
+        <v>592</v>
+      </c>
+      <c r="B299" t="s" s="3">
+        <v>593</v>
+      </c>
+      <c r="C299" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="5">
+        <f>D299/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" ht="13.65" customHeight="1">
+      <c r="A300" t="s" s="3">
+        <v>594</v>
+      </c>
+      <c r="B300" t="s" s="3">
+        <v>595</v>
+      </c>
+      <c r="C300" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="5">
+        <f>D300/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" ht="13.65" customHeight="1">
+      <c r="A301" t="s" s="3">
+        <v>596</v>
+      </c>
+      <c r="B301" t="s" s="3">
+        <v>597</v>
+      </c>
+      <c r="C301" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D301" s="4"/>
+      <c r="E301" s="5">
+        <f>D301/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" ht="13.65" customHeight="1">
+      <c r="A302" t="s" s="3">
+        <v>598</v>
+      </c>
+      <c r="B302" t="s" s="3">
+        <v>599</v>
+      </c>
+      <c r="C302" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="5">
+        <f>D302/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" ht="13.65" customHeight="1">
+      <c r="A303" t="s" s="3">
+        <v>600</v>
+      </c>
+      <c r="B303" t="s" s="3">
+        <v>601</v>
+      </c>
+      <c r="C303" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D303" s="4"/>
+      <c r="E303" s="5">
+        <f>D303/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" ht="13.65" customHeight="1">
+      <c r="A304" t="s" s="3">
+        <v>524</v>
+      </c>
+      <c r="B304" t="s" s="3">
+        <v>602</v>
+      </c>
+      <c r="C304" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D304" s="4"/>
+      <c r="E304" s="5">
+        <f>D304/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" ht="13.65" customHeight="1">
+      <c r="A305" t="s" s="3">
+        <v>603</v>
+      </c>
+      <c r="B305" t="s" s="3">
+        <v>604</v>
+      </c>
+      <c r="C305" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="5">
+        <f>D305/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" ht="13.65" customHeight="1">
+      <c r="A306" t="s" s="3">
+        <v>605</v>
+      </c>
+      <c r="B306" t="s" s="3">
+        <v>606</v>
+      </c>
+      <c r="C306" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="5">
+        <f>D306/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" ht="13.65" customHeight="1">
+      <c r="A307" t="s" s="3">
+        <v>607</v>
+      </c>
+      <c r="B307" t="s" s="3">
+        <v>608</v>
+      </c>
+      <c r="C307" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="5">
+        <f>D307/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" ht="13.65" customHeight="1">
+      <c r="A308" t="s" s="3">
+        <v>609</v>
+      </c>
+      <c r="B308" t="s" s="3">
+        <v>610</v>
+      </c>
+      <c r="C308" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D308" s="4"/>
+      <c r="E308" s="5">
+        <f>D308/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" ht="13.65" customHeight="1">
+      <c r="A309" t="s" s="3">
+        <v>611</v>
+      </c>
+      <c r="B309" t="s" s="3">
+        <v>612</v>
+      </c>
+      <c r="C309" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="5">
+        <f>D309/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" ht="13.65" customHeight="1">
+      <c r="A310" t="s" s="3">
+        <v>613</v>
+      </c>
+      <c r="B310" t="s" s="3">
+        <v>614</v>
+      </c>
+      <c r="C310" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="5">
+        <f>D310/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" ht="13.65" customHeight="1">
+      <c r="A311" t="s" s="3">
+        <v>615</v>
+      </c>
+      <c r="B311" t="s" s="3">
+        <v>616</v>
+      </c>
+      <c r="C311" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="5">
+        <f>D311/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" ht="13.65" customHeight="1">
+      <c r="A312" t="s" s="3">
+        <v>617</v>
+      </c>
+      <c r="B312" t="s" s="3">
+        <v>618</v>
+      </c>
+      <c r="C312" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="5">
+        <f>D312/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" ht="13.65" customHeight="1">
+      <c r="A313" t="s" s="3">
+        <v>619</v>
+      </c>
+      <c r="B313" t="s" s="3">
+        <v>620</v>
+      </c>
+      <c r="C313" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="5">
+        <f>D313/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" ht="13.65" customHeight="1">
+      <c r="A314" t="s" s="3">
+        <v>621</v>
+      </c>
+      <c r="B314" t="s" s="3">
+        <v>622</v>
+      </c>
+      <c r="C314" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="5">
+        <f>D314/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" ht="13.65" customHeight="1">
+      <c r="A315" t="s" s="3">
+        <v>623</v>
+      </c>
+      <c r="B315" t="s" s="3">
+        <v>624</v>
+      </c>
+      <c r="C315" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="5">
+        <f>D315/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" ht="13.65" customHeight="1">
+      <c r="A316" t="s" s="3">
+        <v>625</v>
+      </c>
+      <c r="B316" t="s" s="3">
+        <v>626</v>
+      </c>
+      <c r="C316" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="5">
+        <f>D316/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" ht="13.65" customHeight="1">
+      <c r="A317" t="s" s="3">
+        <v>627</v>
+      </c>
+      <c r="B317" t="s" s="3">
+        <v>628</v>
+      </c>
+      <c r="C317" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="5">
+        <f>D317/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" ht="13.65" customHeight="1">
+      <c r="A318" t="s" s="3">
+        <v>629</v>
+      </c>
+      <c r="B318" t="s" s="3">
+        <v>630</v>
+      </c>
+      <c r="C318" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="5">
+        <f>D318/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" ht="13.65" customHeight="1">
+      <c r="A319" t="s" s="3">
+        <v>631</v>
+      </c>
+      <c r="B319" t="s" s="3">
+        <v>632</v>
+      </c>
+      <c r="C319" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="5">
+        <f>D319/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" ht="13.65" customHeight="1">
+      <c r="A320" t="s" s="3">
+        <v>633</v>
+      </c>
+      <c r="B320" t="s" s="3">
+        <v>634</v>
+      </c>
+      <c r="C320" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="5">
+        <f>D320/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" ht="13.65" customHeight="1">
+      <c r="A321" t="s" s="3">
+        <v>635</v>
+      </c>
+      <c r="B321" t="s" s="3">
+        <v>636</v>
+      </c>
+      <c r="C321" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="5">
+        <f>D321/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" ht="13.65" customHeight="1">
+      <c r="A322" t="s" s="3">
+        <v>637</v>
+      </c>
+      <c r="B322" t="s" s="3">
+        <v>638</v>
+      </c>
+      <c r="C322" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="5">
+        <f>D322/50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" ht="13.65" customHeight="1">
+      <c r="A323" t="s" s="3">
+        <v>639</v>
+      </c>
+      <c r="B323" t="s" s="3">
+        <v>640</v>
+      </c>
+      <c r="C323" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="5">
+        <f>D323/50</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
